--- a/Running projects/Saifee Hospital Cardiac wing/Running Bill/Running Bill No 2.xlsx
+++ b/Running projects/Saifee Hospital Cardiac wing/Running Bill/Running Bill No 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Saifee Hospital Cardiac wing\Running Bill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD34F64-0E6F-4215-B9C3-52AD6BA37F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFA8B07-842E-49C2-800B-05CB7E216FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="132">
   <si>
     <t>SAIFEE HOSPITAL</t>
   </si>
@@ -591,9 +591,6 @@
     <t>OFM</t>
   </si>
   <si>
-    <t>Pre Qty</t>
-  </si>
-  <si>
     <t>Current Qty</t>
   </si>
   <si>
@@ -601,6 +598,18 @@
   </si>
   <si>
     <t>Running Bill No 2</t>
+  </si>
+  <si>
+    <t>Previous Qty</t>
+  </si>
+  <si>
+    <t>LESS PREVIOUS BILL RS)</t>
+  </si>
+  <si>
+    <t>NET PAYABLE AMOUNT (RS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mar 05, 2024.</t>
   </si>
 </sst>
 </file>
@@ -1094,6 +1103,12 @@
     <xf numFmtId="165" fontId="12" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1165,12 +1180,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1480,8 +1489,8 @@
   <dimension ref="A1:X125"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:T3"/>
+      <pane ySplit="6" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V110" sqref="V110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1511,8 +1520,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="58"/>
-      <c r="B1" s="58"/>
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1531,120 +1540,120 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="34" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
+      <c r="A2" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
     </row>
     <row r="3" spans="1:21" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
+      <c r="A3" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
     </row>
     <row r="4" spans="1:21" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
     </row>
     <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="65"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="40" t="s">
         <v>94</v>
       </c>
       <c r="F5" s="32"/>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="65" t="s">
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="67" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="62"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
       <c r="E6" s="38" t="s">
         <v>4</v>
       </c>
@@ -1676,13 +1685,13 @@
         <v>100</v>
       </c>
       <c r="O6" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="P6" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="P6" s="29" t="s">
+      <c r="Q6" s="29" t="s">
         <v>126</v>
-      </c>
-      <c r="Q6" s="29" t="s">
-        <v>127</v>
       </c>
       <c r="R6" s="29" t="s">
         <v>101</v>
@@ -1690,15 +1699,15 @@
       <c r="S6" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="T6" s="65"/>
+      <c r="T6" s="67"/>
     </row>
     <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="57"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="33"/>
@@ -1846,7 +1855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>3</v>
       </c>
@@ -2150,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="90" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>7</v>
       </c>
@@ -2324,7 +2333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>8</v>
       </c>
@@ -2389,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" ht="60" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>9</v>
       </c>
@@ -2555,13 +2564,13 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
@@ -2591,10 +2600,10 @@
       </c>
     </row>
     <row r="23" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="51"/>
+      <c r="B23" s="53"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -2689,7 +2698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="90" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" ht="105" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>2</v>
       </c>
@@ -2812,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" ht="60" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>4</v>
       </c>
@@ -2989,7 +2998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" ht="60" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>7</v>
       </c>
@@ -3225,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="45" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" ht="60" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>11</v>
       </c>
@@ -3284,7 +3293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" ht="45" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>12</v>
       </c>
@@ -3402,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" ht="45" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>14</v>
       </c>
@@ -3766,27 +3775,27 @@
         <v>104.22</v>
       </c>
       <c r="P43" s="39">
-        <v>114.9</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="39">
         <f t="shared" si="2"/>
-        <v>219.12</v>
+        <v>104.22</v>
       </c>
       <c r="R43" s="18">
         <f t="shared" si="3"/>
-        <v>212204.57279999999</v>
+        <v>100930.81679999999</v>
       </c>
       <c r="S43" s="18">
         <f t="shared" si="4"/>
-        <v>43824</v>
+        <v>20844</v>
       </c>
       <c r="T43" s="18">
         <f t="shared" si="5"/>
-        <v>256028.57279999999</v>
-      </c>
-      <c r="V43" s="70"/>
-      <c r="W43" s="70"/>
-      <c r="X43" s="70"/>
+        <v>121774.81679999999</v>
+      </c>
+      <c r="V43" s="46"/>
+      <c r="W43" s="46"/>
+      <c r="X43" s="46"/>
     </row>
     <row r="44" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
@@ -3839,27 +3848,27 @@
         <v>305.2</v>
       </c>
       <c r="P44" s="39">
-        <v>381.01</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="39">
         <f t="shared" si="2"/>
-        <v>686.21</v>
+        <v>305.2</v>
       </c>
       <c r="R44" s="18">
         <f t="shared" si="3"/>
-        <v>486715.02880000003</v>
+        <v>216472.25599999999</v>
       </c>
       <c r="S44" s="18">
         <f t="shared" si="4"/>
-        <v>120086.75</v>
+        <v>53410</v>
       </c>
       <c r="T44" s="18">
         <f t="shared" si="5"/>
-        <v>606801.77879999997</v>
-      </c>
-      <c r="V44" s="70"/>
-      <c r="W44" s="70"/>
-      <c r="X44" s="70"/>
+        <v>269882.25599999999</v>
+      </c>
+      <c r="V44" s="46"/>
+      <c r="W44" s="46"/>
+      <c r="X44" s="46"/>
     </row>
     <row r="45" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
@@ -3912,27 +3921,27 @@
         <v>653.15</v>
       </c>
       <c r="P45" s="39">
-        <v>1028.67</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="39">
         <f t="shared" si="2"/>
-        <v>1681.8200000000002</v>
+        <v>653.15</v>
       </c>
       <c r="R45" s="18">
         <f t="shared" si="3"/>
-        <v>897528.47030000004</v>
+        <v>348563.29474999994</v>
       </c>
       <c r="S45" s="18">
         <f t="shared" si="4"/>
-        <v>252273.00000000003</v>
+        <v>97972.5</v>
       </c>
       <c r="T45" s="18">
         <f t="shared" si="5"/>
-        <v>1149801.4703000002</v>
-      </c>
-      <c r="V45" s="70"/>
-      <c r="W45" s="70"/>
-      <c r="X45" s="70"/>
+        <v>446535.79474999994</v>
+      </c>
+      <c r="V45" s="46"/>
+      <c r="W45" s="46"/>
+      <c r="X45" s="46"/>
     </row>
     <row r="46" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
@@ -3985,27 +3994,27 @@
         <v>440.82</v>
       </c>
       <c r="P46" s="39">
-        <v>634.74</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="39">
         <f t="shared" si="2"/>
-        <v>1075.56</v>
+        <v>440.82</v>
       </c>
       <c r="R46" s="18">
         <f t="shared" si="3"/>
-        <v>467626.59899999993</v>
+        <v>191657.51549999998</v>
       </c>
       <c r="S46" s="18">
         <f t="shared" si="4"/>
-        <v>134445</v>
+        <v>55102.5</v>
       </c>
       <c r="T46" s="18">
         <f t="shared" si="5"/>
-        <v>602071.59899999993</v>
-      </c>
-      <c r="V46" s="70"/>
-      <c r="W46" s="70"/>
-      <c r="X46" s="70"/>
+        <v>246760.01549999998</v>
+      </c>
+      <c r="V46" s="46"/>
+      <c r="W46" s="46"/>
+      <c r="X46" s="46"/>
     </row>
     <row r="47" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
@@ -4041,9 +4050,9 @@
         <v>0</v>
       </c>
       <c r="T47" s="18"/>
-      <c r="V47" s="70"/>
-      <c r="W47" s="70"/>
-      <c r="X47" s="70"/>
+      <c r="V47" s="46"/>
+      <c r="W47" s="46"/>
+      <c r="X47" s="46"/>
     </row>
     <row r="48" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
@@ -4104,9 +4113,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V48" s="70"/>
-      <c r="W48" s="70"/>
-      <c r="X48" s="70"/>
+      <c r="V48" s="46"/>
+      <c r="W48" s="46"/>
+      <c r="X48" s="46"/>
     </row>
     <row r="49" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
@@ -4167,9 +4176,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V49" s="70"/>
-      <c r="W49" s="70"/>
-      <c r="X49" s="70"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
+      <c r="X49" s="46"/>
     </row>
     <row r="50" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
@@ -4213,28 +4222,26 @@
         <v>1200</v>
       </c>
       <c r="O50" s="39"/>
-      <c r="P50" s="39">
-        <v>5</v>
-      </c>
+      <c r="P50" s="39"/>
       <c r="Q50" s="39">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R50" s="18">
         <f t="shared" si="3"/>
-        <v>55481.25</v>
+        <v>0</v>
       </c>
       <c r="S50" s="18">
         <f t="shared" si="4"/>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="T50" s="18">
         <f t="shared" si="5"/>
-        <v>61481.25</v>
-      </c>
-      <c r="V50" s="70"/>
-      <c r="W50" s="70"/>
-      <c r="X50" s="70"/>
+        <v>0</v>
+      </c>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
+      <c r="X50" s="46"/>
     </row>
     <row r="51" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
@@ -4278,28 +4285,26 @@
         <v>1000</v>
       </c>
       <c r="O51" s="39"/>
-      <c r="P51" s="39">
-        <v>9</v>
-      </c>
+      <c r="P51" s="39"/>
       <c r="Q51" s="39">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R51" s="18">
         <f t="shared" si="3"/>
-        <v>70537.5</v>
+        <v>0</v>
       </c>
       <c r="S51" s="18">
         <f t="shared" si="4"/>
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="T51" s="18">
         <f t="shared" si="5"/>
-        <v>79537.5</v>
-      </c>
-      <c r="V51" s="70"/>
-      <c r="W51" s="70"/>
-      <c r="X51" s="70"/>
+        <v>0</v>
+      </c>
+      <c r="V51" s="46"/>
+      <c r="W51" s="46"/>
+      <c r="X51" s="46"/>
     </row>
     <row r="52" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
@@ -4360,9 +4365,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V52" s="70"/>
-      <c r="W52" s="70"/>
-      <c r="X52" s="70"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
+      <c r="X52" s="46"/>
     </row>
     <row r="53" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
@@ -4401,9 +4406,9 @@
         <v>0</v>
       </c>
       <c r="T53" s="18"/>
-      <c r="V53" s="70"/>
-      <c r="W53" s="70"/>
-      <c r="X53" s="70"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="46"/>
+      <c r="X53" s="46"/>
     </row>
     <row r="54" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
@@ -4447,28 +4452,26 @@
         <v>1000</v>
       </c>
       <c r="O54" s="39"/>
-      <c r="P54" s="39">
-        <v>7</v>
-      </c>
+      <c r="P54" s="39"/>
       <c r="Q54" s="39">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R54" s="18">
         <f t="shared" si="3"/>
-        <v>26565</v>
+        <v>0</v>
       </c>
       <c r="S54" s="18">
         <f t="shared" si="4"/>
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="T54" s="18">
         <f t="shared" si="5"/>
-        <v>33565</v>
-      </c>
-      <c r="V54" s="70"/>
-      <c r="W54" s="70"/>
-      <c r="X54" s="70"/>
+        <v>0</v>
+      </c>
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
+      <c r="X54" s="46"/>
     </row>
     <row r="55" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
@@ -4529,9 +4532,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V55" s="70"/>
-      <c r="W55" s="70"/>
-      <c r="X55" s="70"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
+      <c r="X55" s="46"/>
     </row>
     <row r="56" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
@@ -4592,9 +4595,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V56" s="70"/>
-      <c r="W56" s="70"/>
-      <c r="X56" s="70"/>
+      <c r="V56" s="46"/>
+      <c r="W56" s="46"/>
+      <c r="X56" s="46"/>
     </row>
     <row r="57" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
@@ -4655,9 +4658,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V57" s="70"/>
-      <c r="W57" s="70"/>
-      <c r="X57" s="70"/>
+      <c r="V57" s="46"/>
+      <c r="W57" s="46"/>
+      <c r="X57" s="46"/>
     </row>
     <row r="58" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
@@ -4718,9 +4721,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V58" s="70"/>
-      <c r="W58" s="70"/>
-      <c r="X58" s="70"/>
+      <c r="V58" s="46"/>
+      <c r="W58" s="46"/>
+      <c r="X58" s="46"/>
     </row>
     <row r="59" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
@@ -4781,9 +4784,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V59" s="70"/>
-      <c r="W59" s="70"/>
-      <c r="X59" s="70"/>
+      <c r="V59" s="46"/>
+      <c r="W59" s="46"/>
+      <c r="X59" s="46"/>
     </row>
     <row r="60" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="9">
@@ -4822,9 +4825,9 @@
         <v>0</v>
       </c>
       <c r="T60" s="18"/>
-      <c r="V60" s="70"/>
-      <c r="W60" s="70"/>
-      <c r="X60" s="70"/>
+      <c r="V60" s="46"/>
+      <c r="W60" s="46"/>
+      <c r="X60" s="46"/>
     </row>
     <row r="61" spans="1:24" ht="180" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
@@ -4860,9 +4863,9 @@
         <v>0</v>
       </c>
       <c r="T61" s="18"/>
-      <c r="V61" s="70"/>
-      <c r="W61" s="70"/>
-      <c r="X61" s="70"/>
+      <c r="V61" s="46"/>
+      <c r="W61" s="46"/>
+      <c r="X61" s="46"/>
     </row>
     <row r="62" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
@@ -4929,9 +4932,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V62" s="70"/>
-      <c r="W62" s="70"/>
-      <c r="X62" s="70"/>
+      <c r="V62" s="46"/>
+      <c r="W62" s="46"/>
+      <c r="X62" s="46"/>
     </row>
     <row r="63" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
@@ -5003,9 +5006,9 @@
         <f t="shared" si="5"/>
         <v>1283636.3903999997</v>
       </c>
-      <c r="V63" s="70"/>
-      <c r="W63" s="70"/>
-      <c r="X63" s="70"/>
+      <c r="V63" s="46"/>
+      <c r="W63" s="46"/>
+      <c r="X63" s="46"/>
     </row>
     <row r="64" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
@@ -5077,9 +5080,9 @@
         <f t="shared" si="5"/>
         <v>2779408.1370000006</v>
       </c>
-      <c r="V64" s="70"/>
-      <c r="W64" s="70"/>
-      <c r="X64" s="70"/>
+      <c r="V64" s="46"/>
+      <c r="W64" s="46"/>
+      <c r="X64" s="46"/>
     </row>
     <row r="65" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
@@ -5151,9 +5154,9 @@
         <f t="shared" si="5"/>
         <v>1390806.6327500001</v>
       </c>
-      <c r="V65" s="70"/>
-      <c r="W65" s="70"/>
-      <c r="X65" s="70"/>
+      <c r="V65" s="46"/>
+      <c r="W65" s="46"/>
+      <c r="X65" s="46"/>
     </row>
     <row r="66" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
@@ -5224,9 +5227,9 @@
         <f t="shared" si="5"/>
         <v>1047749.84375</v>
       </c>
-      <c r="V66" s="70"/>
-      <c r="W66" s="70"/>
-      <c r="X66" s="70"/>
+      <c r="V66" s="46"/>
+      <c r="W66" s="46"/>
+      <c r="X66" s="46"/>
     </row>
     <row r="67" spans="1:24" ht="30" x14ac:dyDescent="0.2">
       <c r="A67" s="9">
@@ -5259,9 +5262,9 @@
         <v>0</v>
       </c>
       <c r="T67" s="18"/>
-      <c r="V67" s="70"/>
-      <c r="W67" s="70"/>
-      <c r="X67" s="70"/>
+      <c r="V67" s="46"/>
+      <c r="W67" s="46"/>
+      <c r="X67" s="46"/>
     </row>
     <row r="68" spans="1:24" ht="30" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
@@ -5327,9 +5330,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V68" s="70"/>
-      <c r="W68" s="70"/>
-      <c r="X68" s="70"/>
+      <c r="V68" s="46"/>
+      <c r="W68" s="46"/>
+      <c r="X68" s="46"/>
     </row>
     <row r="69" spans="1:24" ht="30" x14ac:dyDescent="0.2">
       <c r="A69" s="9">
@@ -5365,9 +5368,9 @@
         <v>0</v>
       </c>
       <c r="T69" s="18"/>
-      <c r="V69" s="70"/>
-      <c r="W69" s="70"/>
-      <c r="X69" s="70"/>
+      <c r="V69" s="46"/>
+      <c r="W69" s="46"/>
+      <c r="X69" s="46"/>
     </row>
     <row r="70" spans="1:24" ht="30" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
@@ -5437,9 +5440,9 @@
         <f t="shared" si="5"/>
         <v>888350</v>
       </c>
-      <c r="V70" s="70"/>
-      <c r="W70" s="70"/>
-      <c r="X70" s="70"/>
+      <c r="V70" s="46"/>
+      <c r="W70" s="46"/>
+      <c r="X70" s="46"/>
     </row>
     <row r="71" spans="1:24" ht="45" x14ac:dyDescent="0.2">
       <c r="A71" s="9">
@@ -5475,9 +5478,9 @@
         <v>0</v>
       </c>
       <c r="T71" s="18"/>
-      <c r="V71" s="70"/>
-      <c r="W71" s="70"/>
-      <c r="X71" s="70"/>
+      <c r="V71" s="46"/>
+      <c r="W71" s="46"/>
+      <c r="X71" s="46"/>
     </row>
     <row r="72" spans="1:24" ht="30" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
@@ -5543,9 +5546,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V72" s="70"/>
-      <c r="W72" s="70"/>
-      <c r="X72" s="70"/>
+      <c r="V72" s="46"/>
+      <c r="W72" s="46"/>
+      <c r="X72" s="46"/>
     </row>
     <row r="73" spans="1:24" ht="30" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
@@ -5611,9 +5614,9 @@
         <f t="shared" ref="T73:T74" si="14">S73+R73</f>
         <v>0</v>
       </c>
-      <c r="V73" s="70"/>
-      <c r="W73" s="70"/>
-      <c r="X73" s="70"/>
+      <c r="V73" s="46"/>
+      <c r="W73" s="46"/>
+      <c r="X73" s="46"/>
     </row>
     <row r="74" spans="1:24" ht="30" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
@@ -5679,9 +5682,9 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="V74" s="70"/>
-      <c r="W74" s="70"/>
-      <c r="X74" s="70"/>
+      <c r="V74" s="46"/>
+      <c r="W74" s="46"/>
+      <c r="X74" s="46"/>
     </row>
     <row r="75" spans="1:24" ht="30" x14ac:dyDescent="0.2">
       <c r="A75" s="9">
@@ -5717,9 +5720,9 @@
         <v>0</v>
       </c>
       <c r="T75" s="18"/>
-      <c r="V75" s="70"/>
-      <c r="W75" s="70"/>
-      <c r="X75" s="70"/>
+      <c r="V75" s="46"/>
+      <c r="W75" s="46"/>
+      <c r="X75" s="46"/>
     </row>
     <row r="76" spans="1:24" ht="30" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
@@ -5789,9 +5792,9 @@
         <f t="shared" ref="T76:T107" si="16">S76+R76</f>
         <v>178500</v>
       </c>
-      <c r="V76" s="70"/>
-      <c r="W76" s="70"/>
-      <c r="X76" s="70"/>
+      <c r="V76" s="46"/>
+      <c r="W76" s="46"/>
+      <c r="X76" s="46"/>
     </row>
     <row r="77" spans="1:24" ht="30" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
@@ -5861,11 +5864,11 @@
         <f t="shared" si="16"/>
         <v>68000</v>
       </c>
-      <c r="V77" s="70"/>
-      <c r="W77" s="70"/>
-      <c r="X77" s="70"/>
-    </row>
-    <row r="78" spans="1:24" ht="105" x14ac:dyDescent="0.2">
+      <c r="V77" s="46"/>
+      <c r="W77" s="46"/>
+      <c r="X77" s="46"/>
+    </row>
+    <row r="78" spans="1:24" ht="120" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>23</v>
       </c>
@@ -5929,11 +5932,11 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="V78" s="70"/>
-      <c r="W78" s="70"/>
-      <c r="X78" s="70"/>
-    </row>
-    <row r="79" spans="1:24" ht="45" x14ac:dyDescent="0.2">
+      <c r="V78" s="46"/>
+      <c r="W78" s="46"/>
+      <c r="X78" s="46"/>
+    </row>
+    <row r="79" spans="1:24" ht="60" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>24</v>
       </c>
@@ -5997,11 +6000,11 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="V79" s="70"/>
-      <c r="W79" s="70"/>
-      <c r="X79" s="70"/>
-    </row>
-    <row r="80" spans="1:24" ht="45" x14ac:dyDescent="0.2">
+      <c r="V79" s="46"/>
+      <c r="W79" s="46"/>
+      <c r="X79" s="46"/>
+    </row>
+    <row r="80" spans="1:24" ht="60" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>25</v>
       </c>
@@ -6057,9 +6060,9 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="V80" s="70"/>
-      <c r="W80" s="70"/>
-      <c r="X80" s="70"/>
+      <c r="V80" s="46"/>
+      <c r="W80" s="46"/>
+      <c r="X80" s="46"/>
     </row>
     <row r="81" spans="1:24" ht="90" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
@@ -6125,9 +6128,9 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="V81" s="70"/>
-      <c r="W81" s="70"/>
-      <c r="X81" s="70"/>
+      <c r="V81" s="46"/>
+      <c r="W81" s="46"/>
+      <c r="X81" s="46"/>
     </row>
     <row r="82" spans="1:24" ht="45" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
@@ -6193,18 +6196,18 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="V82" s="70"/>
-      <c r="W82" s="70"/>
-      <c r="X82" s="70"/>
+      <c r="V82" s="46"/>
+      <c r="W82" s="46"/>
+      <c r="X82" s="46"/>
     </row>
     <row r="83" spans="1:24" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="54" t="s">
+      <c r="A83" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="B83" s="55"/>
-      <c r="C83" s="55"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="55"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="57"/>
+      <c r="E83" s="57"/>
       <c r="F83" s="20"/>
       <c r="G83" s="20"/>
       <c r="H83" s="20"/>
@@ -6230,18 +6233,18 @@
       </c>
       <c r="T83" s="19">
         <f>SUM(T24:T82)</f>
-        <v>10425738.174800001</v>
-      </c>
-      <c r="V83" s="70"/>
-      <c r="W83" s="70"/>
-      <c r="X83" s="70"/>
+        <v>8721403.8869500011</v>
+      </c>
+      <c r="V83" s="46"/>
+      <c r="W83" s="46"/>
+      <c r="X83" s="46"/>
     </row>
     <row r="84" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A84" s="49" t="s">
+      <c r="A84" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="B84" s="50"/>
-      <c r="C84" s="51"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="53"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
@@ -6277,9 +6280,9 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="V84" s="70"/>
-      <c r="W84" s="70"/>
-      <c r="X84" s="70"/>
+      <c r="V84" s="46"/>
+      <c r="W84" s="46"/>
+      <c r="X84" s="46"/>
     </row>
     <row r="85" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
@@ -6335,9 +6338,9 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="V85" s="70"/>
-      <c r="W85" s="70"/>
-      <c r="X85" s="70"/>
+      <c r="V85" s="46"/>
+      <c r="W85" s="46"/>
+      <c r="X85" s="46"/>
     </row>
     <row r="86" spans="1:24" ht="60" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
@@ -6395,9 +6398,9 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="V86" s="70"/>
-      <c r="W86" s="70"/>
-      <c r="X86" s="70"/>
+      <c r="V86" s="46"/>
+      <c r="W86" s="46"/>
+      <c r="X86" s="46"/>
     </row>
     <row r="87" spans="1:24" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
@@ -6455,9 +6458,9 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="V87" s="70"/>
-      <c r="W87" s="70"/>
-      <c r="X87" s="70"/>
+      <c r="V87" s="46"/>
+      <c r="W87" s="46"/>
+      <c r="X87" s="46"/>
     </row>
     <row r="88" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="9">
@@ -6502,11 +6505,11 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="V88" s="70"/>
-      <c r="W88" s="70"/>
-      <c r="X88" s="70"/>
-    </row>
-    <row r="89" spans="1:24" ht="180" x14ac:dyDescent="0.2">
+      <c r="V88" s="46"/>
+      <c r="W88" s="46"/>
+      <c r="X88" s="46"/>
+    </row>
+    <row r="89" spans="1:24" ht="210" x14ac:dyDescent="0.2">
       <c r="A89" s="16" t="s">
         <v>35</v>
       </c>
@@ -6549,9 +6552,9 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="V89" s="70"/>
-      <c r="W89" s="70"/>
-      <c r="X89" s="70"/>
+      <c r="V89" s="46"/>
+      <c r="W89" s="46"/>
+      <c r="X89" s="46"/>
     </row>
     <row r="90" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
@@ -6618,9 +6621,9 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="V90" s="70"/>
-      <c r="W90" s="70"/>
-      <c r="X90" s="70"/>
+      <c r="V90" s="46"/>
+      <c r="W90" s="46"/>
+      <c r="X90" s="46"/>
     </row>
     <row r="91" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
@@ -6689,9 +6692,9 @@
         <f t="shared" si="16"/>
         <v>84091.867500000008</v>
       </c>
-      <c r="V91" s="70"/>
-      <c r="W91" s="70"/>
-      <c r="X91" s="70"/>
+      <c r="V91" s="46"/>
+      <c r="W91" s="46"/>
+      <c r="X91" s="46"/>
     </row>
     <row r="92" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
@@ -6762,9 +6765,9 @@
         <f t="shared" si="16"/>
         <v>352050.97200000001</v>
       </c>
-      <c r="V92" s="70"/>
-      <c r="W92" s="70"/>
-      <c r="X92" s="70"/>
+      <c r="V92" s="46"/>
+      <c r="W92" s="46"/>
+      <c r="X92" s="46"/>
     </row>
     <row r="93" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
@@ -6835,9 +6838,9 @@
         <f t="shared" si="16"/>
         <v>233847.84599999999</v>
       </c>
-      <c r="V93" s="70"/>
-      <c r="W93" s="70"/>
-      <c r="X93" s="70"/>
+      <c r="V93" s="46"/>
+      <c r="W93" s="46"/>
+      <c r="X93" s="46"/>
     </row>
     <row r="94" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
@@ -6908,9 +6911,9 @@
         <f t="shared" si="16"/>
         <v>521369.76564999996</v>
       </c>
-      <c r="V94" s="70"/>
-      <c r="W94" s="70"/>
-      <c r="X94" s="70"/>
+      <c r="V94" s="46"/>
+      <c r="W94" s="46"/>
+      <c r="X94" s="46"/>
     </row>
     <row r="95" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
@@ -6981,9 +6984,9 @@
         <f t="shared" si="16"/>
         <v>518945.01149999996</v>
       </c>
-      <c r="V95" s="70"/>
-      <c r="W95" s="70"/>
-      <c r="X95" s="70"/>
+      <c r="V95" s="46"/>
+      <c r="W95" s="46"/>
+      <c r="X95" s="46"/>
     </row>
     <row r="96" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="9">
@@ -7031,9 +7034,9 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="V96" s="70"/>
-      <c r="W96" s="70"/>
-      <c r="X96" s="70"/>
+      <c r="V96" s="46"/>
+      <c r="W96" s="46"/>
+      <c r="X96" s="46"/>
     </row>
     <row r="97" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
@@ -7094,9 +7097,9 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="V97" s="70"/>
-      <c r="W97" s="70"/>
-      <c r="X97" s="70"/>
+      <c r="V97" s="46"/>
+      <c r="W97" s="46"/>
+      <c r="X97" s="46"/>
     </row>
     <row r="98" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
@@ -7159,9 +7162,9 @@
         <f t="shared" si="16"/>
         <v>86073.75</v>
       </c>
-      <c r="V98" s="70"/>
-      <c r="W98" s="70"/>
-      <c r="X98" s="70"/>
+      <c r="V98" s="46"/>
+      <c r="W98" s="46"/>
+      <c r="X98" s="46"/>
     </row>
     <row r="99" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
@@ -7222,9 +7225,9 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="V99" s="70"/>
-      <c r="W99" s="70"/>
-      <c r="X99" s="70"/>
+      <c r="V99" s="46"/>
+      <c r="W99" s="46"/>
+      <c r="X99" s="46"/>
     </row>
     <row r="100" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
@@ -7285,18 +7288,18 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="V100" s="70"/>
-      <c r="W100" s="70"/>
-      <c r="X100" s="70"/>
+      <c r="V100" s="46"/>
+      <c r="W100" s="46"/>
+      <c r="X100" s="46"/>
     </row>
     <row r="101" spans="1:24" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="54" t="s">
+      <c r="A101" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B101" s="55"/>
-      <c r="C101" s="55"/>
-      <c r="D101" s="55"/>
-      <c r="E101" s="55"/>
+      <c r="B101" s="57"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="57"/>
+      <c r="E101" s="57"/>
       <c r="F101" s="20"/>
       <c r="G101" s="20"/>
       <c r="H101" s="20"/>
@@ -7324,16 +7327,16 @@
         <f>SUM(T85:T100)</f>
         <v>1796379.2126500001</v>
       </c>
-      <c r="V101" s="70"/>
-      <c r="W101" s="70"/>
-      <c r="X101" s="70"/>
+      <c r="V101" s="46"/>
+      <c r="W101" s="46"/>
+      <c r="X101" s="46"/>
     </row>
     <row r="102" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A102" s="49" t="s">
+      <c r="A102" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="B102" s="50"/>
-      <c r="C102" s="51"/>
+      <c r="B102" s="52"/>
+      <c r="C102" s="53"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
@@ -7360,9 +7363,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="18"/>
-      <c r="V102" s="70"/>
-      <c r="W102" s="70"/>
-      <c r="X102" s="70"/>
+      <c r="V102" s="46"/>
+      <c r="W102" s="46"/>
+      <c r="X102" s="46"/>
     </row>
     <row r="103" spans="1:24" ht="60" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
@@ -7420,11 +7423,11 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="V103" s="70"/>
-      <c r="W103" s="70"/>
-      <c r="X103" s="70"/>
-    </row>
-    <row r="104" spans="1:24" ht="60" x14ac:dyDescent="0.2">
+      <c r="V103" s="46"/>
+      <c r="W103" s="46"/>
+      <c r="X103" s="46"/>
+    </row>
+    <row r="104" spans="1:24" ht="75" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>2</v>
       </c>
@@ -7478,9 +7481,9 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="V104" s="70"/>
-      <c r="W104" s="70"/>
-      <c r="X104" s="70"/>
+      <c r="V104" s="46"/>
+      <c r="W104" s="46"/>
+      <c r="X104" s="46"/>
     </row>
     <row r="105" spans="1:24" ht="60" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
@@ -7536,11 +7539,11 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="V105" s="70"/>
-      <c r="W105" s="70"/>
-      <c r="X105" s="70"/>
-    </row>
-    <row r="106" spans="1:24" ht="45" x14ac:dyDescent="0.2">
+      <c r="V105" s="46"/>
+      <c r="W105" s="46"/>
+      <c r="X105" s="46"/>
+    </row>
+    <row r="106" spans="1:24" ht="60" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>4</v>
       </c>
@@ -7594,9 +7597,9 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="V106" s="70"/>
-      <c r="W106" s="70"/>
-      <c r="X106" s="70"/>
+      <c r="V106" s="46"/>
+      <c r="W106" s="46"/>
+      <c r="X106" s="46"/>
     </row>
     <row r="107" spans="1:24" ht="30" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
@@ -7650,18 +7653,18 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="V107" s="70"/>
-      <c r="W107" s="70"/>
-      <c r="X107" s="70"/>
+      <c r="V107" s="46"/>
+      <c r="W107" s="46"/>
+      <c r="X107" s="46"/>
     </row>
     <row r="108" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="52" t="s">
+      <c r="A108" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="B108" s="53"/>
-      <c r="C108" s="53"/>
-      <c r="D108" s="53"/>
-      <c r="E108" s="53"/>
+      <c r="B108" s="55"/>
+      <c r="C108" s="55"/>
+      <c r="D108" s="55"/>
+      <c r="E108" s="55"/>
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
       <c r="H108" s="12"/>
@@ -7682,13 +7685,13 @@
       </c>
     </row>
     <row r="109" spans="1:24" s="23" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A109" s="52" t="s">
+      <c r="A109" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="B109" s="53"/>
-      <c r="C109" s="53"/>
-      <c r="D109" s="53"/>
-      <c r="E109" s="53"/>
+      <c r="B109" s="55"/>
+      <c r="C109" s="55"/>
+      <c r="D109" s="55"/>
+      <c r="E109" s="55"/>
       <c r="F109" s="22"/>
       <c r="G109" s="22"/>
       <c r="H109" s="22"/>
@@ -7705,23 +7708,70 @@
       <c r="S109" s="22"/>
       <c r="T109" s="24">
         <f>T108+T101+T83+T22</f>
-        <v>12222117.387450002</v>
-      </c>
-      <c r="X109" s="71"/>
-    </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="X110" s="70"/>
+        <v>10517783.099600002</v>
+      </c>
+      <c r="X109" s="47"/>
+    </row>
+    <row r="110" spans="1:24" s="23" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A110" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="B110" s="55"/>
+      <c r="C110" s="55"/>
+      <c r="D110" s="55"/>
+      <c r="E110" s="55"/>
+      <c r="F110" s="22"/>
+      <c r="G110" s="22"/>
+      <c r="H110" s="22"/>
+      <c r="I110" s="22"/>
+      <c r="J110" s="22"/>
+      <c r="K110" s="22"/>
+      <c r="L110" s="22"/>
+      <c r="M110" s="22"/>
+      <c r="N110" s="22"/>
+      <c r="O110" s="22"/>
+      <c r="P110" s="22"/>
+      <c r="Q110" s="22"/>
+      <c r="R110" s="22"/>
+      <c r="S110" s="22"/>
+      <c r="T110" s="24"/>
+      <c r="X110" s="47"/>
+    </row>
+    <row r="111" spans="1:24" s="23" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A111" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="B111" s="55"/>
+      <c r="C111" s="55"/>
+      <c r="D111" s="55"/>
+      <c r="E111" s="55"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="22"/>
+      <c r="H111" s="22"/>
+      <c r="I111" s="22"/>
+      <c r="J111" s="22"/>
+      <c r="K111" s="22"/>
+      <c r="L111" s="22"/>
+      <c r="M111" s="22"/>
+      <c r="N111" s="22"/>
+      <c r="O111" s="22"/>
+      <c r="P111" s="22"/>
+      <c r="Q111" s="22"/>
+      <c r="R111" s="22"/>
+      <c r="S111" s="22"/>
+      <c r="T111" s="24"/>
+      <c r="X111" s="47"/>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="T112" s="25"/>
     </row>
     <row r="113" spans="6:22" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F113" s="46"/>
-      <c r="G113" s="46"/>
-      <c r="H113" s="46"/>
-      <c r="I113" s="46"/>
-      <c r="J113" s="46"/>
-      <c r="K113" s="46"/>
+      <c r="F113" s="48"/>
+      <c r="G113" s="48"/>
+      <c r="H113" s="48"/>
+      <c r="I113" s="48"/>
+      <c r="J113" s="48"/>
+      <c r="K113" s="48"/>
       <c r="L113" s="31"/>
       <c r="M113" s="31"/>
       <c r="N113" s="31"/>
@@ -7753,12 +7803,12 @@
       <c r="T119" s="21"/>
     </row>
     <row r="120" spans="6:22" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F120" s="46"/>
-      <c r="G120" s="46"/>
-      <c r="H120" s="46"/>
-      <c r="I120" s="46"/>
-      <c r="J120" s="46"/>
-      <c r="K120" s="46"/>
+      <c r="F120" s="48"/>
+      <c r="G120" s="48"/>
+      <c r="H120" s="48"/>
+      <c r="I120" s="48"/>
+      <c r="J120" s="48"/>
+      <c r="K120" s="48"/>
       <c r="L120" s="31"/>
       <c r="M120" s="31"/>
       <c r="N120" s="31"/>
@@ -7773,12 +7823,12 @@
       <c r="T121" s="21"/>
     </row>
     <row r="122" spans="6:22" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F122" s="46"/>
-      <c r="G122" s="46"/>
-      <c r="H122" s="46"/>
-      <c r="I122" s="46"/>
-      <c r="J122" s="46"/>
-      <c r="K122" s="46"/>
+      <c r="F122" s="48"/>
+      <c r="G122" s="48"/>
+      <c r="H122" s="48"/>
+      <c r="I122" s="48"/>
+      <c r="J122" s="48"/>
+      <c r="K122" s="48"/>
       <c r="L122" s="31"/>
       <c r="M122" s="31"/>
       <c r="N122" s="31"/>
@@ -7793,12 +7843,12 @@
       <c r="T123" s="21"/>
     </row>
     <row r="124" spans="6:22" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="F124" s="46"/>
-      <c r="G124" s="46"/>
-      <c r="H124" s="46"/>
-      <c r="I124" s="46"/>
-      <c r="J124" s="46"/>
-      <c r="K124" s="46"/>
+      <c r="F124" s="48"/>
+      <c r="G124" s="48"/>
+      <c r="H124" s="48"/>
+      <c r="I124" s="48"/>
+      <c r="J124" s="48"/>
+      <c r="K124" s="48"/>
       <c r="L124" s="31"/>
       <c r="M124" s="31"/>
       <c r="N124" s="31"/>
@@ -7813,7 +7863,7 @@
       <c r="T125" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:T3"/>
@@ -7836,19 +7886,23 @@
     <mergeCell ref="A83:E83"/>
     <mergeCell ref="A84:C84"/>
     <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A111:E111"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="9" manualBreakCount="9">
+  <pageMargins left="0" right="0" top="0.23622047244094491" bottom="0.62992125984251968" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="11" manualBreakCount="11">
     <brk id="12" max="19" man="1"/>
-    <brk id="22" max="16" man="1"/>
-    <brk id="33" max="15" man="1"/>
-    <brk id="52" max="15" man="1"/>
-    <brk id="74" max="15" man="1"/>
-    <brk id="83" max="16" man="1"/>
-    <brk id="86" max="15" man="1"/>
-    <brk id="95" max="16" man="1"/>
+    <brk id="22" max="19" man="1"/>
+    <brk id="29" max="19" man="1"/>
+    <brk id="35" max="19" man="1"/>
+    <brk id="47" max="19" man="1"/>
+    <brk id="59" max="19" man="1"/>
+    <brk id="70" max="19" man="1"/>
+    <brk id="78" max="19" man="1"/>
+    <brk id="83" max="19" man="1"/>
+    <brk id="87" max="19" man="1"/>
     <brk id="101" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
@@ -7890,8 +7944,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="58"/>
-      <c r="B1" s="58"/>
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -7913,85 +7967,85 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
     </row>
     <row r="3" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
+      <c r="A3" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
     </row>
     <row r="4" spans="1:20" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
     </row>
     <row r="5" spans="1:20" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="65"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="32"/>
       <c r="F5" s="41" t="s">
         <v>116</v>
@@ -8001,28 +8055,28 @@
       <c r="I5" s="41"/>
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
-      <c r="L5" s="67" t="s">
+      <c r="L5" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="67" t="s">
+      <c r="M5" s="70"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="65" t="s">
+      <c r="P5" s="70"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="S5" s="65" t="s">
+      <c r="S5" s="67" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="62"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
       <c r="E6" s="30" t="s">
         <v>4</v>
       </c>
@@ -8062,16 +8116,16 @@
       <c r="Q6" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
     </row>
     <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="57"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="3"/>
       <c r="F7" s="33"/>
       <c r="G7" s="33"/>
@@ -8925,12 +8979,12 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -8957,10 +9011,10 @@
       <c r="S22" s="18"/>
     </row>
     <row r="23" spans="1:20" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="51"/>
+      <c r="B23" s="53"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -12431,12 +12485,12 @@
       </c>
     </row>
     <row r="83" spans="1:19" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="54" t="s">
+      <c r="A83" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="B83" s="55"/>
-      <c r="C83" s="55"/>
-      <c r="D83" s="55"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="57"/>
       <c r="E83" s="20"/>
       <c r="F83" s="20"/>
       <c r="G83" s="20"/>
@@ -12463,11 +12517,11 @@
       <c r="S83" s="18"/>
     </row>
     <row r="84" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A84" s="49" t="s">
+      <c r="A84" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="B84" s="50"/>
-      <c r="C84" s="51"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="53"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
@@ -13448,12 +13502,12 @@
       </c>
     </row>
     <row r="101" spans="1:19" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="54" t="s">
+      <c r="A101" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B101" s="55"/>
-      <c r="C101" s="55"/>
-      <c r="D101" s="55"/>
+      <c r="B101" s="57"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="57"/>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
       <c r="G101" s="20"/>
@@ -13480,11 +13534,11 @@
       <c r="S101" s="18"/>
     </row>
     <row r="102" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A102" s="49" t="s">
+      <c r="A102" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="B102" s="50"/>
-      <c r="C102" s="51"/>
+      <c r="B102" s="52"/>
+      <c r="C102" s="53"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
@@ -13790,12 +13844,12 @@
       </c>
     </row>
     <row r="108" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="52" t="s">
+      <c r="A108" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="B108" s="53"/>
-      <c r="C108" s="53"/>
-      <c r="D108" s="53"/>
+      <c r="B108" s="55"/>
+      <c r="C108" s="55"/>
+      <c r="D108" s="55"/>
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
@@ -13816,12 +13870,12 @@
       </c>
     </row>
     <row r="109" spans="1:19" s="23" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A109" s="52" t="s">
+      <c r="A109" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="B109" s="53"/>
-      <c r="C109" s="53"/>
-      <c r="D109" s="53"/>
+      <c r="B109" s="55"/>
+      <c r="C109" s="55"/>
+      <c r="D109" s="55"/>
       <c r="E109" s="22"/>
       <c r="F109" s="22"/>
       <c r="G109" s="22"/>
@@ -13851,12 +13905,12 @@
       <c r="S112" s="25"/>
     </row>
     <row r="113" spans="5:21" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="E113" s="46"/>
-      <c r="F113" s="46"/>
-      <c r="G113" s="46"/>
-      <c r="H113" s="46"/>
-      <c r="I113" s="46"/>
-      <c r="J113" s="46"/>
+      <c r="E113" s="48"/>
+      <c r="F113" s="48"/>
+      <c r="G113" s="48"/>
+      <c r="H113" s="48"/>
+      <c r="I113" s="48"/>
+      <c r="J113" s="48"/>
       <c r="K113" s="31"/>
       <c r="L113" s="31"/>
       <c r="M113" s="31"/>
@@ -13888,12 +13942,12 @@
       <c r="S119" s="21"/>
     </row>
     <row r="120" spans="5:21" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="E120" s="46"/>
-      <c r="F120" s="46"/>
-      <c r="G120" s="46"/>
-      <c r="H120" s="46"/>
-      <c r="I120" s="46"/>
-      <c r="J120" s="46"/>
+      <c r="E120" s="48"/>
+      <c r="F120" s="48"/>
+      <c r="G120" s="48"/>
+      <c r="H120" s="48"/>
+      <c r="I120" s="48"/>
+      <c r="J120" s="48"/>
       <c r="K120" s="31"/>
       <c r="L120" s="31"/>
       <c r="M120" s="31"/>
@@ -13908,12 +13962,12 @@
       <c r="S121" s="21"/>
     </row>
     <row r="122" spans="5:21" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="E122" s="46"/>
-      <c r="F122" s="46"/>
-      <c r="G122" s="46"/>
-      <c r="H122" s="46"/>
-      <c r="I122" s="46"/>
-      <c r="J122" s="46"/>
+      <c r="E122" s="48"/>
+      <c r="F122" s="48"/>
+      <c r="G122" s="48"/>
+      <c r="H122" s="48"/>
+      <c r="I122" s="48"/>
+      <c r="J122" s="48"/>
       <c r="K122" s="31"/>
       <c r="L122" s="31"/>
       <c r="M122" s="31"/>
@@ -13928,12 +13982,12 @@
       <c r="S123" s="21"/>
     </row>
     <row r="124" spans="5:21" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="E124" s="46"/>
-      <c r="F124" s="46"/>
-      <c r="G124" s="46"/>
-      <c r="H124" s="46"/>
-      <c r="I124" s="46"/>
-      <c r="J124" s="46"/>
+      <c r="E124" s="48"/>
+      <c r="F124" s="48"/>
+      <c r="G124" s="48"/>
+      <c r="H124" s="48"/>
+      <c r="I124" s="48"/>
+      <c r="J124" s="48"/>
       <c r="K124" s="31"/>
       <c r="L124" s="31"/>
       <c r="M124" s="31"/>
